--- a/TAP/data/results/5CV/external.xlsx
+++ b/TAP/data/results/5CV/external.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>model</t>
   </si>
@@ -25,7 +25,25 @@
     <t>auc_roc</t>
   </si>
   <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Sens</t>
+  </si>
+  <si>
+    <t>Spec</t>
+  </si>
+  <si>
+    <t>Acc</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
     <t>ap</t>
+  </si>
+  <si>
+    <t>MCC</t>
   </si>
   <si>
     <t>TAP</t>
@@ -386,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,159 +423,375 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
       <c r="C2">
-        <v>0.8584880636604775</v>
+        <v>0.8281573498964804</v>
       </c>
       <c r="D2">
-        <v>0.9537797093520022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.2604</v>
+      </c>
+      <c r="E2">
+        <v>0.5908289241622575</v>
+      </c>
+      <c r="F2">
+        <v>0.9347826086956522</v>
+      </c>
+      <c r="G2">
+        <v>0.6166394779771615</v>
+      </c>
+      <c r="H2">
+        <v>0.7628057664289549</v>
+      </c>
+      <c r="I2">
+        <v>0.9829796549385335</v>
+      </c>
+      <c r="J2">
+        <v>0.2784265423272125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>12</v>
       </c>
       <c r="C3">
-        <v>0.8607546333899432</v>
+        <v>0.8288523582731602</v>
       </c>
       <c r="D3">
-        <v>0.9548628245086739</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.1282</v>
+      </c>
+      <c r="E3">
+        <v>0.6554770318021201</v>
+      </c>
+      <c r="F3">
+        <v>0.8913043478260869</v>
+      </c>
+      <c r="G3">
+        <v>0.673202614379085</v>
+      </c>
+      <c r="H3">
+        <v>0.7733906898141035</v>
+      </c>
+      <c r="I3">
+        <v>0.9827421423411445</v>
+      </c>
+      <c r="J3">
+        <v>0.2961767232155829</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>11</v>
       </c>
       <c r="C4">
-        <v>0.8584179131054132</v>
+        <v>0.8246325690770135</v>
       </c>
       <c r="D4">
-        <v>0.954269391362107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1481</v>
+      </c>
+      <c r="E4">
+        <v>0.6384479717813051</v>
+      </c>
+      <c r="F4">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="G4">
+        <v>0.6568627450980392</v>
+      </c>
+      <c r="H4">
+        <v>0.7636684303350969</v>
+      </c>
+      <c r="I4">
+        <v>0.9828679887234953</v>
+      </c>
+      <c r="J4">
+        <v>0.2809117087133983</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.8551797819039197</v>
+        <v>0.8231347289318304</v>
       </c>
       <c r="D5">
-        <v>0.9519971404989644</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.0234</v>
+      </c>
+      <c r="E5">
+        <v>0.7160493827160493</v>
+      </c>
+      <c r="F5">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="G5">
+        <v>0.7243066884176182</v>
+      </c>
+      <c r="H5">
+        <v>0.7710681696188942</v>
+      </c>
+      <c r="I5">
+        <v>0.9828354738421248</v>
+      </c>
+      <c r="J5">
+        <v>0.3050368134163043</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>7</v>
       </c>
       <c r="C6">
-        <v>0.8567418213969938</v>
+        <v>0.8279656468062264</v>
       </c>
       <c r="D6">
-        <v>0.952509541198532</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1416</v>
+      </c>
+      <c r="E6">
+        <v>0.6455026455026455</v>
+      </c>
+      <c r="F6">
+        <v>0.8913043478260869</v>
+      </c>
+      <c r="G6">
+        <v>0.6639477977161501</v>
+      </c>
+      <c r="H6">
+        <v>0.7684034966643662</v>
+      </c>
+      <c r="I6">
+        <v>0.9832150769236028</v>
+      </c>
+      <c r="J6">
+        <v>0.2893303367574673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7">
-        <v>0.8327807250221045</v>
+        <v>0.8162717583007437</v>
       </c>
       <c r="D7">
-        <v>0.9453611559985644</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.162</v>
+      </c>
+      <c r="E7">
+        <v>0.6843033509700176</v>
+      </c>
+      <c r="F7">
+        <v>0.8913043478260869</v>
+      </c>
+      <c r="G7">
+        <v>0.6998368678629691</v>
+      </c>
+      <c r="H7">
+        <v>0.7878038493980523</v>
+      </c>
+      <c r="I7">
+        <v>0.9826767333598202</v>
+      </c>
+      <c r="J7">
+        <v>0.3161472611002694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>9</v>
       </c>
       <c r="C8">
-        <v>0.8586280577659887</v>
+        <v>0.8267770876466529</v>
       </c>
       <c r="D8">
-        <v>0.9534582895030306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.1633</v>
+      </c>
+      <c r="E8">
+        <v>0.6296296296296297</v>
+      </c>
+      <c r="F8">
+        <v>0.8913043478260869</v>
+      </c>
+      <c r="G8">
+        <v>0.6492659053833605</v>
+      </c>
+      <c r="H8">
+        <v>0.7604669887278583</v>
+      </c>
+      <c r="I8">
+        <v>0.9829380728290058</v>
+      </c>
+      <c r="J8">
+        <v>0.2791013801743985</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.8577807250221043</v>
+        <v>0.82587608312246</v>
       </c>
       <c r="D9">
-        <v>0.9529671252892044</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.176</v>
+      </c>
+      <c r="E9">
+        <v>0.6278659611992945</v>
+      </c>
+      <c r="F9">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="G9">
+        <v>0.6492659053833605</v>
+      </c>
+      <c r="H9">
+        <v>0.7704547197300819</v>
+      </c>
+      <c r="I9">
+        <v>0.9828899491286367</v>
+      </c>
+      <c r="J9">
+        <v>0.2894566254751216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8444149720011789</v>
+        <v>0.8156966490299824</v>
       </c>
       <c r="D10">
-        <v>0.9490752963820035</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1124</v>
+      </c>
+      <c r="E10">
+        <v>0.6649029982363316</v>
+      </c>
+      <c r="F10">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="G10">
+        <v>0.6802610114192496</v>
+      </c>
+      <c r="H10">
+        <v>0.767234107813818</v>
+      </c>
+      <c r="I10">
+        <v>0.9824309618771062</v>
+      </c>
+      <c r="J10">
+        <v>0.2908231830571419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11">
-        <v>0.7973843206601826</v>
+        <v>0.7945326278659611</v>
       </c>
       <c r="D11">
-        <v>0.9322100297693214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.2051</v>
+      </c>
+      <c r="E11">
+        <v>0.6261022927689595</v>
+      </c>
+      <c r="F11">
+        <v>0.8043478260869565</v>
+      </c>
+      <c r="G11">
+        <v>0.6394779771615008</v>
+      </c>
+      <c r="H11">
+        <v>0.715225059427958</v>
+      </c>
+      <c r="I11">
+        <v>0.9798420105745118</v>
+      </c>
+      <c r="J11">
+        <v>0.2309100907632188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
       <c r="C12">
-        <v>0.8508325965222517</v>
+        <v>0.8165018020090485</v>
       </c>
       <c r="D12">
-        <v>0.9507738234445813</v>
+        <v>0.1761</v>
+      </c>
+      <c r="E12">
+        <v>0.6278659611992945</v>
+      </c>
+      <c r="F12">
+        <v>0.9347826086956522</v>
+      </c>
+      <c r="G12">
+        <v>0.6508972267536705</v>
+      </c>
+      <c r="H12">
+        <v>0.7813242849474733</v>
+      </c>
+      <c r="I12">
+        <v>0.9823820912481167</v>
+      </c>
+      <c r="J12">
+        <v>0.300914823355256</v>
       </c>
     </row>
   </sheetData>
